--- a/data/pca/factorExposure/factorExposure_2012-02-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-02-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01461741783335642</v>
+        <v>0.01502335817027256</v>
       </c>
       <c r="C2">
-        <v>0.02956860864514876</v>
+        <v>-0.02540811599432594</v>
       </c>
       <c r="D2">
-        <v>-0.006571616308207255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.006123849327484335</v>
+      </c>
+      <c r="E2">
+        <v>0.009787771605519333</v>
+      </c>
+      <c r="F2">
+        <v>-0.01155583266772204</v>
+      </c>
+      <c r="G2">
+        <v>-0.01675727470390956</v>
+      </c>
+      <c r="H2">
+        <v>0.04599371271970268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07221124207240051</v>
+        <v>0.08679531483748995</v>
       </c>
       <c r="C4">
-        <v>0.05030865484044303</v>
+        <v>-0.03792637874916251</v>
       </c>
       <c r="D4">
-        <v>-0.08305967034700788</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06403154718756368</v>
+      </c>
+      <c r="E4">
+        <v>0.01566869035819083</v>
+      </c>
+      <c r="F4">
+        <v>-0.03260260732087572</v>
+      </c>
+      <c r="G4">
+        <v>-0.001738220440468248</v>
+      </c>
+      <c r="H4">
+        <v>-0.04098934284481774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1080781095733528</v>
+        <v>0.1194375059186408</v>
       </c>
       <c r="C6">
-        <v>0.05456784755814442</v>
+        <v>-0.03475074692668739</v>
       </c>
       <c r="D6">
-        <v>0.000661046208904035</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01422053784069178</v>
+      </c>
+      <c r="E6">
+        <v>-0.009791705920982711</v>
+      </c>
+      <c r="F6">
+        <v>-0.05370474250253222</v>
+      </c>
+      <c r="G6">
+        <v>-0.03326129589063904</v>
+      </c>
+      <c r="H6">
+        <v>0.119997336842323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04969900409178812</v>
+        <v>0.0639485406856438</v>
       </c>
       <c r="C7">
-        <v>0.0287380473064199</v>
+        <v>-0.021038442424895</v>
       </c>
       <c r="D7">
-        <v>-0.04476444671658347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04432891244774825</v>
+      </c>
+      <c r="E7">
+        <v>0.03749773762804756</v>
+      </c>
+      <c r="F7">
+        <v>-0.03211471464588855</v>
+      </c>
+      <c r="G7">
+        <v>0.03903212723270323</v>
+      </c>
+      <c r="H7">
+        <v>-0.002657781701783597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03835138475579431</v>
+        <v>0.04115246788992145</v>
       </c>
       <c r="C8">
-        <v>0.01358070724182527</v>
+        <v>-0.009272674318450995</v>
       </c>
       <c r="D8">
-        <v>-0.06141910019577739</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02556088001505963</v>
+      </c>
+      <c r="E8">
+        <v>0.03538637641617516</v>
+      </c>
+      <c r="F8">
+        <v>-0.05290567381171576</v>
+      </c>
+      <c r="G8">
+        <v>-0.05352475096252544</v>
+      </c>
+      <c r="H8">
+        <v>0.01065543433789778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06673976840104154</v>
+        <v>0.07835439515138727</v>
       </c>
       <c r="C9">
-        <v>0.04176856983961719</v>
+        <v>-0.02913527653166481</v>
       </c>
       <c r="D9">
-        <v>-0.07212349606478147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06287880843547924</v>
+      </c>
+      <c r="E9">
+        <v>0.04051917955530307</v>
+      </c>
+      <c r="F9">
+        <v>-0.0294263343562467</v>
+      </c>
+      <c r="G9">
+        <v>-0.005308980027015029</v>
+      </c>
+      <c r="H9">
+        <v>-0.04323998081508108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02779007529502872</v>
+        <v>0.03293753283154369</v>
       </c>
       <c r="C10">
-        <v>0.03203445636780036</v>
+        <v>-0.04250673498661501</v>
       </c>
       <c r="D10">
-        <v>0.1767711215577476</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1734043430652732</v>
+      </c>
+      <c r="E10">
+        <v>0.04502718048315223</v>
+      </c>
+      <c r="F10">
+        <v>-0.04607360074041708</v>
+      </c>
+      <c r="G10">
+        <v>0.02661718300974662</v>
+      </c>
+      <c r="H10">
+        <v>0.04807098330200429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07110365294769597</v>
+        <v>0.0764365348498951</v>
       </c>
       <c r="C11">
-        <v>0.04607874541215656</v>
+        <v>-0.02788164725366102</v>
       </c>
       <c r="D11">
-        <v>-0.05956887043103403</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06263732837098453</v>
+      </c>
+      <c r="E11">
+        <v>-0.0004360131353662185</v>
+      </c>
+      <c r="F11">
+        <v>-0.02870808146619286</v>
+      </c>
+      <c r="G11">
+        <v>0.002850360837861376</v>
+      </c>
+      <c r="H11">
+        <v>-0.08102629564994182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.05852965203855493</v>
+        <v>0.06787667503123548</v>
       </c>
       <c r="C12">
-        <v>0.05257579418766865</v>
+        <v>-0.03797827555597116</v>
       </c>
       <c r="D12">
-        <v>-0.0424509865692166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.0475578675891213</v>
+      </c>
+      <c r="E12">
+        <v>0.01494683901729243</v>
+      </c>
+      <c r="F12">
+        <v>-0.01783692528534074</v>
+      </c>
+      <c r="G12">
+        <v>-0.0009855160461367735</v>
+      </c>
+      <c r="H12">
+        <v>-0.03791861110760367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06036006354814526</v>
+        <v>0.06497550819772034</v>
       </c>
       <c r="C13">
-        <v>0.03989455596580554</v>
+        <v>-0.0257898884562334</v>
       </c>
       <c r="D13">
-        <v>-0.06066855229808515</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04231397241547594</v>
+      </c>
+      <c r="E13">
+        <v>0.017279646877707</v>
+      </c>
+      <c r="F13">
+        <v>-0.007080392867880671</v>
+      </c>
+      <c r="G13">
+        <v>0.01044876126114756</v>
+      </c>
+      <c r="H13">
+        <v>-0.0400995661557111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.0327897671118862</v>
+        <v>0.04112068581029558</v>
       </c>
       <c r="C14">
-        <v>0.03084190381636818</v>
+        <v>-0.02731625004535011</v>
       </c>
       <c r="D14">
-        <v>-0.001229191376076799</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.006803748879735345</v>
+      </c>
+      <c r="E14">
+        <v>0.03857381565425276</v>
+      </c>
+      <c r="F14">
+        <v>-0.01025706891286269</v>
+      </c>
+      <c r="G14">
+        <v>-0.002668056627342379</v>
+      </c>
+      <c r="H14">
+        <v>-0.05495961556206512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04029128995359477</v>
+        <v>0.04004100119631251</v>
       </c>
       <c r="C15">
-        <v>0.01072761634592252</v>
+        <v>-0.003596989321289222</v>
       </c>
       <c r="D15">
-        <v>-0.01745945258052366</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.004314889066608094</v>
+      </c>
+      <c r="E15">
+        <v>0.03584148772624832</v>
+      </c>
+      <c r="F15">
+        <v>0.005952113927491635</v>
+      </c>
+      <c r="G15">
+        <v>-0.02519213795793653</v>
+      </c>
+      <c r="H15">
+        <v>-0.03832697048557369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06077598688814997</v>
+        <v>0.07063006782671301</v>
       </c>
       <c r="C16">
-        <v>0.04224445691397694</v>
+        <v>-0.02859480036328081</v>
       </c>
       <c r="D16">
-        <v>-0.04610736703857078</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06152125003786527</v>
+      </c>
+      <c r="E16">
+        <v>0.008726070557970022</v>
+      </c>
+      <c r="F16">
+        <v>-0.02348975616725648</v>
+      </c>
+      <c r="G16">
+        <v>0.005868477703802943</v>
+      </c>
+      <c r="H16">
+        <v>-0.0498028434066232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06253141485990925</v>
+        <v>0.06379925803406357</v>
       </c>
       <c r="C20">
-        <v>0.02905356407634918</v>
+        <v>-0.01333713004865144</v>
       </c>
       <c r="D20">
-        <v>-0.05130387075371</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03838961729710978</v>
+      </c>
+      <c r="E20">
+        <v>0.0312507805793746</v>
+      </c>
+      <c r="F20">
+        <v>-0.02151858537142115</v>
+      </c>
+      <c r="G20">
+        <v>-0.01244307327741437</v>
+      </c>
+      <c r="H20">
+        <v>-0.04015449538393906</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02590631131131895</v>
+        <v>0.02647728985995756</v>
       </c>
       <c r="C21">
-        <v>-0.002967386605706944</v>
+        <v>0.009087293463828628</v>
       </c>
       <c r="D21">
-        <v>-0.02533879049767041</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02480334312028099</v>
+      </c>
+      <c r="E21">
+        <v>0.04518030532383052</v>
+      </c>
+      <c r="F21">
+        <v>0.01889825468474856</v>
+      </c>
+      <c r="G21">
+        <v>-0.006485198079890724</v>
+      </c>
+      <c r="H21">
+        <v>0.05203285557277349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07701159823449454</v>
+        <v>0.07263282043685362</v>
       </c>
       <c r="C22">
-        <v>0.06095709370548111</v>
+        <v>-0.0417198063365764</v>
       </c>
       <c r="D22">
-        <v>-0.1005307759627287</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.06579235782196521</v>
+      </c>
+      <c r="E22">
+        <v>0.5639656842756212</v>
+      </c>
+      <c r="F22">
+        <v>0.2369408070113095</v>
+      </c>
+      <c r="G22">
+        <v>0.07035599518771575</v>
+      </c>
+      <c r="H22">
+        <v>0.150062059231342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07798331445737755</v>
+        <v>0.07338150915718954</v>
       </c>
       <c r="C23">
-        <v>0.05985093276810133</v>
+        <v>-0.04034495876535767</v>
       </c>
       <c r="D23">
-        <v>-0.1021051672573255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.06679238823327484</v>
+      </c>
+      <c r="E23">
+        <v>0.5632927825402043</v>
+      </c>
+      <c r="F23">
+        <v>0.235845892893905</v>
+      </c>
+      <c r="G23">
+        <v>0.06907960326077177</v>
+      </c>
+      <c r="H23">
+        <v>0.1455923739987099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07179913344803247</v>
+        <v>0.08015147388818267</v>
       </c>
       <c r="C24">
-        <v>0.05113988096688062</v>
+        <v>-0.03463476080127168</v>
       </c>
       <c r="D24">
-        <v>-0.06054531305910426</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05914843229776551</v>
+      </c>
+      <c r="E24">
+        <v>0.0182337189633134</v>
+      </c>
+      <c r="F24">
+        <v>-0.03341740127519741</v>
+      </c>
+      <c r="G24">
+        <v>-0.01118736803499129</v>
+      </c>
+      <c r="H24">
+        <v>-0.04973782446215041</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07088708583431129</v>
+        <v>0.07796009466628369</v>
       </c>
       <c r="C25">
-        <v>0.05636046227618317</v>
+        <v>-0.03908002612648783</v>
       </c>
       <c r="D25">
-        <v>-0.0653849574782973</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05178171225362165</v>
+      </c>
+      <c r="E25">
+        <v>0.02315900266049756</v>
+      </c>
+      <c r="F25">
+        <v>-0.02176847373701797</v>
+      </c>
+      <c r="G25">
+        <v>-0.01819921383807804</v>
+      </c>
+      <c r="H25">
+        <v>-0.05218346168139752</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.0451598421553587</v>
+        <v>0.04769081505963126</v>
       </c>
       <c r="C26">
-        <v>0.009795769588284127</v>
+        <v>-0.002354138650618647</v>
       </c>
       <c r="D26">
-        <v>-0.01400864903531133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01792767012996604</v>
+      </c>
+      <c r="E26">
+        <v>0.05575347661177162</v>
+      </c>
+      <c r="F26">
+        <v>-0.02214632012099572</v>
+      </c>
+      <c r="G26">
+        <v>0.01153672694747593</v>
+      </c>
+      <c r="H26">
+        <v>-0.05246936695414521</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05162344304908022</v>
+        <v>0.06133412985877149</v>
       </c>
       <c r="C28">
-        <v>0.07358426399278448</v>
+        <v>-0.08487288320943707</v>
       </c>
       <c r="D28">
-        <v>0.3162064322771448</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.3101097157015585</v>
+      </c>
+      <c r="E28">
+        <v>0.02645878493471802</v>
+      </c>
+      <c r="F28">
+        <v>-0.0561697073980604</v>
+      </c>
+      <c r="G28">
+        <v>-0.03350043489569619</v>
+      </c>
+      <c r="H28">
+        <v>0.04015320689531215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04141675400492637</v>
+        <v>0.04898481244885229</v>
       </c>
       <c r="C29">
-        <v>0.03022506419370729</v>
+        <v>-0.0255645563486041</v>
       </c>
       <c r="D29">
-        <v>-0.006660034788470008</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.006076840504848221</v>
+      </c>
+      <c r="E29">
+        <v>0.06729725705561622</v>
+      </c>
+      <c r="F29">
+        <v>-0.001287347826008902</v>
+      </c>
+      <c r="G29">
+        <v>0.01121128344750437</v>
+      </c>
+      <c r="H29">
+        <v>-0.07177455469218415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1233699722807788</v>
+        <v>0.1308336289321715</v>
       </c>
       <c r="C30">
-        <v>0.09095793584556973</v>
+        <v>-0.06507544124630377</v>
       </c>
       <c r="D30">
-        <v>-0.1122755715089986</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.06586142543037478</v>
+      </c>
+      <c r="E30">
+        <v>0.08508233212670283</v>
+      </c>
+      <c r="F30">
+        <v>0.01838378858079763</v>
+      </c>
+      <c r="G30">
+        <v>-0.07988610595428652</v>
+      </c>
+      <c r="H30">
+        <v>0.04361401890609416</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04343045171075927</v>
+        <v>0.04886291284133566</v>
       </c>
       <c r="C31">
-        <v>0.02257516822864363</v>
+        <v>-0.01444182081792535</v>
       </c>
       <c r="D31">
-        <v>-0.02531352691043825</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02661510227069585</v>
+      </c>
+      <c r="E31">
+        <v>0.0270638675971803</v>
+      </c>
+      <c r="F31">
+        <v>-0.009887695725380743</v>
+      </c>
+      <c r="G31">
+        <v>0.02697023314595774</v>
+      </c>
+      <c r="H31">
+        <v>-0.06155554136720839</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03825114662610796</v>
+        <v>0.03886034416689398</v>
       </c>
       <c r="C32">
-        <v>0.02377937987334377</v>
+        <v>-0.01758437854216759</v>
       </c>
       <c r="D32">
-        <v>-0.02296826369643395</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01308512990517263</v>
+      </c>
+      <c r="E32">
+        <v>0.05861174423483942</v>
+      </c>
+      <c r="F32">
+        <v>0.0235035334812565</v>
+      </c>
+      <c r="G32">
+        <v>-0.0244281929668477</v>
+      </c>
+      <c r="H32">
+        <v>-0.08006402477503813</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08280157688623446</v>
+        <v>0.09581029417693104</v>
       </c>
       <c r="C33">
-        <v>0.04473002191986617</v>
+        <v>-0.02929768036249316</v>
       </c>
       <c r="D33">
-        <v>-0.0624663642140611</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04556536576784893</v>
+      </c>
+      <c r="E33">
+        <v>0.01643732040941402</v>
+      </c>
+      <c r="F33">
+        <v>-0.004100066960594172</v>
+      </c>
+      <c r="G33">
+        <v>0.007173814333552311</v>
+      </c>
+      <c r="H33">
+        <v>-0.05328546276675459</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05631119409343054</v>
+        <v>0.06296194924412984</v>
       </c>
       <c r="C34">
-        <v>0.02810924643656499</v>
+        <v>-0.01471016798069465</v>
       </c>
       <c r="D34">
-        <v>-0.05447414922333983</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05206948306888154</v>
+      </c>
+      <c r="E34">
+        <v>0.01034126550151813</v>
+      </c>
+      <c r="F34">
+        <v>-0.01466068179184127</v>
+      </c>
+      <c r="G34">
+        <v>0.003363335797500938</v>
+      </c>
+      <c r="H34">
+        <v>-0.05406346924698326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03777190747626429</v>
+        <v>0.03990275784234732</v>
       </c>
       <c r="C35">
-        <v>0.007333938907378312</v>
+        <v>-0.002663959121136188</v>
       </c>
       <c r="D35">
-        <v>-0.01115138358541299</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.009063037415139455</v>
+      </c>
+      <c r="E35">
+        <v>0.02004494542317031</v>
+      </c>
+      <c r="F35">
+        <v>0.01677225158638908</v>
+      </c>
+      <c r="G35">
+        <v>0.01109291214849153</v>
+      </c>
+      <c r="H35">
+        <v>-0.01462533384109393</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02205006153939939</v>
+        <v>0.0282571547669493</v>
       </c>
       <c r="C36">
-        <v>0.01696788547856999</v>
+        <v>-0.01389137798394695</v>
       </c>
       <c r="D36">
-        <v>-0.02313761990423693</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01581254846367795</v>
+      </c>
+      <c r="E36">
+        <v>0.04060389704339885</v>
+      </c>
+      <c r="F36">
+        <v>-0.01560226184059835</v>
+      </c>
+      <c r="G36">
+        <v>0.008418053169434321</v>
+      </c>
+      <c r="H36">
+        <v>-0.04269097660463363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.03987670302488108</v>
+        <v>0.04453590340370703</v>
       </c>
       <c r="C38">
-        <v>0.005006742433891857</v>
+        <v>-9.686288293890627e-05</v>
       </c>
       <c r="D38">
-        <v>-0.01763026211691008</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01713120443781871</v>
+      </c>
+      <c r="E38">
+        <v>0.05455297997897812</v>
+      </c>
+      <c r="F38">
+        <v>0.01275262095323951</v>
+      </c>
+      <c r="G38">
+        <v>-0.005041396255229221</v>
+      </c>
+      <c r="H38">
+        <v>-0.02979763553982576</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09090868164623563</v>
+        <v>0.1024794266592833</v>
       </c>
       <c r="C39">
-        <v>0.07397147002359644</v>
+        <v>-0.05347153555823788</v>
       </c>
       <c r="D39">
-        <v>-0.05492709733253525</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05765866978083235</v>
+      </c>
+      <c r="E39">
+        <v>-0.0005782810140097443</v>
+      </c>
+      <c r="F39">
+        <v>0.001108495015855201</v>
+      </c>
+      <c r="G39">
+        <v>-0.0333569906545803</v>
+      </c>
+      <c r="H39">
+        <v>-0.04526673881306578</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.07483413995329471</v>
+        <v>0.07073192936277801</v>
       </c>
       <c r="C40">
-        <v>0.03942374826338578</v>
+        <v>-0.01962188847120677</v>
       </c>
       <c r="D40">
-        <v>-0.00250237901140385</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01141826151814229</v>
+      </c>
+      <c r="E40">
+        <v>0.01795424241592233</v>
+      </c>
+      <c r="F40">
+        <v>0.05751882334664711</v>
+      </c>
+      <c r="G40">
+        <v>-0.05124987595346654</v>
+      </c>
+      <c r="H40">
+        <v>0.1045536831547491</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04106260454725262</v>
+        <v>0.04403953976854215</v>
       </c>
       <c r="C41">
-        <v>0.005328086537704839</v>
+        <v>0.001599425256389283</v>
       </c>
       <c r="D41">
-        <v>-0.03614479372948592</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03372010765439706</v>
+      </c>
+      <c r="E41">
+        <v>0.003383641052573457</v>
+      </c>
+      <c r="F41">
+        <v>0.01507639368950932</v>
+      </c>
+      <c r="G41">
+        <v>-0.009110358307046321</v>
+      </c>
+      <c r="H41">
+        <v>-0.03248143202460625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.04842277639068729</v>
+        <v>0.05815931722457342</v>
       </c>
       <c r="C43">
-        <v>0.02555618477221048</v>
+        <v>-0.01830108876113637</v>
       </c>
       <c r="D43">
-        <v>-0.01882030022657883</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02416128689704877</v>
+      </c>
+      <c r="E43">
+        <v>0.02293545301055859</v>
+      </c>
+      <c r="F43">
+        <v>-0.01192066000814961</v>
+      </c>
+      <c r="G43">
+        <v>0.01678796290326454</v>
+      </c>
+      <c r="H43">
+        <v>-0.05296872624607974</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09170209619738361</v>
+        <v>0.09518299139445706</v>
       </c>
       <c r="C44">
-        <v>0.09279003165119415</v>
+        <v>-0.06826993464301785</v>
       </c>
       <c r="D44">
-        <v>-0.08179335311459204</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05658815130999845</v>
+      </c>
+      <c r="E44">
+        <v>0.08913655483674481</v>
+      </c>
+      <c r="F44">
+        <v>-0.04126178305564634</v>
+      </c>
+      <c r="G44">
+        <v>-0.02819738435261015</v>
+      </c>
+      <c r="H44">
+        <v>-0.01758347380637727</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02471617614101099</v>
+        <v>0.03386464574381245</v>
       </c>
       <c r="C46">
-        <v>0.01323461929444557</v>
+        <v>-0.01138335427310259</v>
       </c>
       <c r="D46">
-        <v>-0.02249706707063624</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03242279123515893</v>
+      </c>
+      <c r="E46">
+        <v>0.03417947448396045</v>
+      </c>
+      <c r="F46">
+        <v>-0.01199495475798982</v>
+      </c>
+      <c r="G46">
+        <v>0.007476053444473375</v>
+      </c>
+      <c r="H46">
+        <v>-0.03807370375715632</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.02935465118357684</v>
+        <v>0.03809057325523508</v>
       </c>
       <c r="C47">
-        <v>0.02496806080432552</v>
+        <v>-0.0208543372592868</v>
       </c>
       <c r="D47">
-        <v>-0.01082683715239688</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.009457754037729145</v>
+      </c>
+      <c r="E47">
+        <v>0.05458472145609428</v>
+      </c>
+      <c r="F47">
+        <v>-0.002618642509862257</v>
+      </c>
+      <c r="G47">
+        <v>0.04617097784342532</v>
+      </c>
+      <c r="H47">
+        <v>-0.01947656799506671</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03273443236067929</v>
+        <v>0.03773207429599518</v>
       </c>
       <c r="C48">
-        <v>0.01841589991958656</v>
+        <v>-0.01136732391484036</v>
       </c>
       <c r="D48">
-        <v>-0.03164066998448888</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02003242815912543</v>
+      </c>
+      <c r="E48">
+        <v>0.04567708532156559</v>
+      </c>
+      <c r="F48">
+        <v>-0.00130766812143776</v>
+      </c>
+      <c r="G48">
+        <v>-0.012009240416222</v>
+      </c>
+      <c r="H48">
+        <v>-0.03752993142841626</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1596729067574193</v>
+        <v>0.1884342623184406</v>
       </c>
       <c r="C49">
-        <v>0.05720719782836032</v>
+        <v>-0.0349938349327902</v>
       </c>
       <c r="D49">
-        <v>0.01275936401372537</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02844890209474527</v>
+      </c>
+      <c r="E49">
+        <v>-0.1473421554652781</v>
+      </c>
+      <c r="F49">
+        <v>-0.07922569502011305</v>
+      </c>
+      <c r="G49">
+        <v>0.0517829686165877</v>
+      </c>
+      <c r="H49">
+        <v>0.2262869864707355</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03870773242717523</v>
+        <v>0.04578242896133912</v>
       </c>
       <c r="C50">
-        <v>0.02682788339605674</v>
+        <v>-0.01991007691532022</v>
       </c>
       <c r="D50">
-        <v>-0.03793748963674058</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03115683855766053</v>
+      </c>
+      <c r="E50">
+        <v>0.05013461821791902</v>
+      </c>
+      <c r="F50">
+        <v>-0.008904423377364263</v>
+      </c>
+      <c r="G50">
+        <v>0.02330690039551461</v>
+      </c>
+      <c r="H50">
+        <v>-0.05909390515420007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02667709702294772</v>
+        <v>0.03017291429233427</v>
       </c>
       <c r="C51">
-        <v>0.01100457481466012</v>
+        <v>-0.005634123302136394</v>
       </c>
       <c r="D51">
-        <v>-0.01289146955172049</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01149085659338326</v>
+      </c>
+      <c r="E51">
+        <v>0.01410442084125534</v>
+      </c>
+      <c r="F51">
+        <v>-0.01701504614828498</v>
+      </c>
+      <c r="G51">
+        <v>0.001977537564401238</v>
+      </c>
+      <c r="H51">
+        <v>0.002607900063416175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1509975919245415</v>
+        <v>0.1621268497457127</v>
       </c>
       <c r="C53">
-        <v>0.07782878337052276</v>
+        <v>-0.05191277460558795</v>
       </c>
       <c r="D53">
-        <v>-0.02224283689869248</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.0188636919882275</v>
+      </c>
+      <c r="E53">
+        <v>-0.02786356912435792</v>
+      </c>
+      <c r="F53">
+        <v>-0.02178287913143001</v>
+      </c>
+      <c r="G53">
+        <v>0.02569037174620899</v>
+      </c>
+      <c r="H53">
+        <v>-0.1829916176542487</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05561290490851434</v>
+        <v>0.05826341752508787</v>
       </c>
       <c r="C54">
-        <v>0.02595708640793002</v>
+        <v>-0.01491473038681191</v>
       </c>
       <c r="D54">
-        <v>-0.0231787626167716</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0160428719408307</v>
+      </c>
+      <c r="E54">
+        <v>0.05315287251993895</v>
+      </c>
+      <c r="F54">
+        <v>-0.002137767174422098</v>
+      </c>
+      <c r="G54">
+        <v>-0.009413527717974358</v>
+      </c>
+      <c r="H54">
+        <v>-0.04445826199680386</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09887664114762559</v>
+        <v>0.103415383251146</v>
       </c>
       <c r="C55">
-        <v>0.05416752077830754</v>
+        <v>-0.03478264327491844</v>
       </c>
       <c r="D55">
-        <v>-0.02597316662350169</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02324340447346426</v>
+      </c>
+      <c r="E55">
+        <v>0.01922494933653587</v>
+      </c>
+      <c r="F55">
+        <v>-0.01329520674472441</v>
+      </c>
+      <c r="G55">
+        <v>0.01972942797240592</v>
+      </c>
+      <c r="H55">
+        <v>-0.1521313140305433</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1479355906074203</v>
+        <v>0.1614059847897102</v>
       </c>
       <c r="C56">
-        <v>0.09200865332241459</v>
+        <v>-0.06463708631981777</v>
       </c>
       <c r="D56">
-        <v>-0.02193251154238769</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02026312903330362</v>
+      </c>
+      <c r="E56">
+        <v>-0.02645771508551059</v>
+      </c>
+      <c r="F56">
+        <v>-0.03518936742876413</v>
+      </c>
+      <c r="G56">
+        <v>0.03766893355928865</v>
+      </c>
+      <c r="H56">
+        <v>-0.1802476777375425</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1275131259106111</v>
+        <v>0.09976074610464422</v>
       </c>
       <c r="C58">
-        <v>0.008110122749930325</v>
+        <v>0.03416138450527982</v>
       </c>
       <c r="D58">
-        <v>-0.02530333726836765</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03909662405802242</v>
+      </c>
+      <c r="E58">
+        <v>0.1661344838441458</v>
+      </c>
+      <c r="F58">
+        <v>0.02257025645835192</v>
+      </c>
+      <c r="G58">
+        <v>0.0207791399119002</v>
+      </c>
+      <c r="H58">
+        <v>0.2601438884223704</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1194340982393137</v>
+        <v>0.1357517259414894</v>
       </c>
       <c r="C59">
-        <v>0.07910141332545309</v>
+        <v>-0.08555319878187911</v>
       </c>
       <c r="D59">
-        <v>0.3555948926721293</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3638852436988809</v>
+      </c>
+      <c r="E59">
+        <v>0.02119934578412324</v>
+      </c>
+      <c r="F59">
+        <v>-0.02029713549596454</v>
+      </c>
+      <c r="G59">
+        <v>0.02267419970486433</v>
+      </c>
+      <c r="H59">
+        <v>0.0003787986061999337</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2006162381333032</v>
+        <v>0.2321511736391124</v>
       </c>
       <c r="C60">
-        <v>0.1009691077678518</v>
+        <v>-0.06915897258172093</v>
       </c>
       <c r="D60">
-        <v>-0.01894932043725419</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04340636347417894</v>
+      </c>
+      <c r="E60">
+        <v>-0.0939034826581689</v>
+      </c>
+      <c r="F60">
+        <v>-0.07079769669178254</v>
+      </c>
+      <c r="G60">
+        <v>-0.02679696966858015</v>
+      </c>
+      <c r="H60">
+        <v>0.1442086591792993</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.08106835353246997</v>
+        <v>0.08919194763695656</v>
       </c>
       <c r="C61">
-        <v>0.05287323749327605</v>
+        <v>-0.03801212074968444</v>
       </c>
       <c r="D61">
-        <v>-0.04197545462458609</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.03929016164357241</v>
+      </c>
+      <c r="E61">
+        <v>-0.0008941125302634527</v>
+      </c>
+      <c r="F61">
+        <v>0.0008661063261955276</v>
+      </c>
+      <c r="G61">
+        <v>0.002241917477397951</v>
+      </c>
+      <c r="H61">
+        <v>-0.06061281622312647</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1288216736749866</v>
+        <v>0.1389993922242368</v>
       </c>
       <c r="C62">
-        <v>0.06480581790038456</v>
+        <v>-0.03981721568251378</v>
       </c>
       <c r="D62">
-        <v>-0.02776756637004984</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.03219158718959129</v>
+      </c>
+      <c r="E62">
+        <v>-0.06374876401601559</v>
+      </c>
+      <c r="F62">
+        <v>-0.01744221890476489</v>
+      </c>
+      <c r="G62">
+        <v>-0.005154443385894918</v>
+      </c>
+      <c r="H62">
+        <v>-0.2003821449136504</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05092597973012769</v>
+        <v>0.05095506688214047</v>
       </c>
       <c r="C63">
-        <v>0.02447034288028437</v>
+        <v>-0.01333842745572379</v>
       </c>
       <c r="D63">
-        <v>-0.02136296291773463</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01973139716839931</v>
+      </c>
+      <c r="E63">
+        <v>0.05108051313011396</v>
+      </c>
+      <c r="F63">
+        <v>0.01566213337139796</v>
+      </c>
+      <c r="G63">
+        <v>-0.01912073780264943</v>
+      </c>
+      <c r="H63">
+        <v>-0.05370415544512873</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1005085132860769</v>
+        <v>0.1068646414446948</v>
       </c>
       <c r="C64">
-        <v>0.03234044086603669</v>
+        <v>-0.01588717836663905</v>
       </c>
       <c r="D64">
-        <v>-0.04658499958033491</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03311477015118922</v>
+      </c>
+      <c r="E64">
+        <v>0.03877650739154374</v>
+      </c>
+      <c r="F64">
+        <v>-0.03406470612585217</v>
+      </c>
+      <c r="G64">
+        <v>-0.04555635764872565</v>
+      </c>
+      <c r="H64">
+        <v>-0.04403276915362906</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1233451433906399</v>
+        <v>0.1260696429278395</v>
       </c>
       <c r="C65">
-        <v>0.06157448492477305</v>
+        <v>-0.0393926503418994</v>
       </c>
       <c r="D65">
-        <v>0.01499550603949492</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.007119537393759569</v>
+      </c>
+      <c r="E65">
+        <v>0.01021641946674717</v>
+      </c>
+      <c r="F65">
+        <v>-0.05244909925843528</v>
+      </c>
+      <c r="G65">
+        <v>-0.06282455838029864</v>
+      </c>
+      <c r="H65">
+        <v>0.1522591782878238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1448789072941432</v>
+        <v>0.1548405826405634</v>
       </c>
       <c r="C66">
-        <v>0.07813598378087266</v>
+        <v>-0.04937102361437841</v>
       </c>
       <c r="D66">
-        <v>-0.1088939759131899</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09343040542208032</v>
+      </c>
+      <c r="E66">
+        <v>-0.02932131534928521</v>
+      </c>
+      <c r="F66">
+        <v>-0.01418256107319513</v>
+      </c>
+      <c r="G66">
+        <v>-0.04295637177878877</v>
+      </c>
+      <c r="H66">
+        <v>-0.1204602356892492</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07253068315372325</v>
+        <v>0.08433997026071283</v>
       </c>
       <c r="C67">
-        <v>0.01514576563141861</v>
+        <v>-0.006388676633849761</v>
       </c>
       <c r="D67">
-        <v>-0.02122449098283665</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02994711240932248</v>
+      </c>
+      <c r="E67">
+        <v>0.02416452885179495</v>
+      </c>
+      <c r="F67">
+        <v>-0.01858800825790367</v>
+      </c>
+      <c r="G67">
+        <v>0.01321271978061471</v>
+      </c>
+      <c r="H67">
+        <v>-0.03340278554121529</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05737679694001636</v>
+        <v>0.05631921941308682</v>
       </c>
       <c r="C68">
-        <v>0.05016707231003305</v>
+        <v>-0.05775427141693806</v>
       </c>
       <c r="D68">
-        <v>0.2535967621533722</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.270088079572058</v>
+      </c>
+      <c r="E68">
+        <v>0.03418377397230189</v>
+      </c>
+      <c r="F68">
+        <v>-0.01455197056740135</v>
+      </c>
+      <c r="G68">
+        <v>0.01698676438622633</v>
+      </c>
+      <c r="H68">
+        <v>-0.002623374029670124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05127898788707261</v>
+        <v>0.0529819170094408</v>
       </c>
       <c r="C69">
-        <v>0.01796809189843912</v>
+        <v>-0.006870622886880852</v>
       </c>
       <c r="D69">
-        <v>-0.01927124272929285</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01461038841788159</v>
+      </c>
+      <c r="E69">
+        <v>0.02322888916991823</v>
+      </c>
+      <c r="F69">
+        <v>0.01081771800087815</v>
+      </c>
+      <c r="G69">
+        <v>0.02277493489748663</v>
+      </c>
+      <c r="H69">
+        <v>-0.04739404244793065</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.003941308246856866</v>
+        <v>0.02667596176227785</v>
       </c>
       <c r="C70">
-        <v>-0.005303779003259176</v>
+        <v>-8.520735042813197e-05</v>
       </c>
       <c r="D70">
-        <v>-0.001870828480454102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.00685951626850856</v>
+      </c>
+      <c r="E70">
+        <v>-0.01997080387733005</v>
+      </c>
+      <c r="F70">
+        <v>-0.01656593267981341</v>
+      </c>
+      <c r="G70">
+        <v>0.02806998208898092</v>
+      </c>
+      <c r="H70">
+        <v>0.02758307764465387</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05762807472139859</v>
+        <v>0.0588861216089337</v>
       </c>
       <c r="C71">
-        <v>0.04996668392370713</v>
+        <v>-0.06128554042096179</v>
       </c>
       <c r="D71">
-        <v>0.2947134015324376</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2961440650639463</v>
+      </c>
+      <c r="E71">
+        <v>0.03154847403737112</v>
+      </c>
+      <c r="F71">
+        <v>-0.04218601263245321</v>
+      </c>
+      <c r="G71">
+        <v>0.003055707430916657</v>
+      </c>
+      <c r="H71">
+        <v>-0.01089861511671097</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1411401530007787</v>
+        <v>0.1458484549009005</v>
       </c>
       <c r="C72">
-        <v>0.06451587933419274</v>
+        <v>-0.03556130721305172</v>
       </c>
       <c r="D72">
-        <v>0.004410224266049311</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.007079421726716346</v>
+      </c>
+      <c r="E72">
+        <v>-0.1097725569649538</v>
+      </c>
+      <c r="F72">
+        <v>0.1528607886990742</v>
+      </c>
+      <c r="G72">
+        <v>-0.1227656219494025</v>
+      </c>
+      <c r="H72">
+        <v>-0.01840420229217082</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2773847666091703</v>
+        <v>0.287384709493597</v>
       </c>
       <c r="C73">
-        <v>0.1105582431830035</v>
+        <v>-0.04661253549781817</v>
       </c>
       <c r="D73">
-        <v>-0.05351896398249717</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09857773657939431</v>
+      </c>
+      <c r="E73">
+        <v>-0.209842259420143</v>
+      </c>
+      <c r="F73">
+        <v>-0.1245285952705212</v>
+      </c>
+      <c r="G73">
+        <v>0.130283379422799</v>
+      </c>
+      <c r="H73">
+        <v>0.4887837841625003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.07867753182552172</v>
+        <v>0.09092746112993183</v>
       </c>
       <c r="C74">
-        <v>0.07684043951975249</v>
+        <v>-0.06052127223244365</v>
       </c>
       <c r="D74">
-        <v>-0.01321167329394832</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0286408303601125</v>
+      </c>
+      <c r="E74">
+        <v>-0.00563560576693779</v>
+      </c>
+      <c r="F74">
+        <v>-0.0003020111848420388</v>
+      </c>
+      <c r="G74">
+        <v>0.05732416512901725</v>
+      </c>
+      <c r="H74">
+        <v>-0.1155256752143884</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09639558144366787</v>
+        <v>0.1009964708502918</v>
       </c>
       <c r="C75">
-        <v>0.05341221788177918</v>
+        <v>-0.02874566351282699</v>
       </c>
       <c r="D75">
-        <v>-0.01000260678186508</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.014884984270693</v>
+      </c>
+      <c r="E75">
+        <v>0.009696778492094814</v>
+      </c>
+      <c r="F75">
+        <v>-0.02198838193124812</v>
+      </c>
+      <c r="G75">
+        <v>0.0260670575439815</v>
+      </c>
+      <c r="H75">
+        <v>-0.1149980150534125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1290868521651628</v>
+        <v>0.140263902562807</v>
       </c>
       <c r="C76">
-        <v>0.08366971497959905</v>
+        <v>-0.05845260883740123</v>
       </c>
       <c r="D76">
-        <v>-0.05111713457676626</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04847022226037931</v>
+      </c>
+      <c r="E76">
+        <v>0.03056584078654108</v>
+      </c>
+      <c r="F76">
+        <v>-0.04216858252511575</v>
+      </c>
+      <c r="G76">
+        <v>0.02233705229874296</v>
+      </c>
+      <c r="H76">
+        <v>-0.2022349294782173</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1145880550000194</v>
+        <v>0.1082318226540645</v>
       </c>
       <c r="C77">
-        <v>0.01979132982025436</v>
+        <v>0.007670005968313402</v>
       </c>
       <c r="D77">
-        <v>-0.05405083936470172</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.02307706985887457</v>
+      </c>
+      <c r="E77">
+        <v>0.0442342799296129</v>
+      </c>
+      <c r="F77">
+        <v>-0.1091773807310182</v>
+      </c>
+      <c r="G77">
+        <v>-0.8948437077513703</v>
+      </c>
+      <c r="H77">
+        <v>0.06340919126645264</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1015294966031234</v>
+        <v>0.1421196713372118</v>
       </c>
       <c r="C78">
-        <v>0.04157198165907647</v>
+        <v>-0.03742127959436736</v>
       </c>
       <c r="D78">
-        <v>-0.08317860408992862</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07977411462724793</v>
+      </c>
+      <c r="E78">
+        <v>0.06368546326729083</v>
+      </c>
+      <c r="F78">
+        <v>-0.04024728296177375</v>
+      </c>
+      <c r="G78">
+        <v>-0.08440216374760626</v>
+      </c>
+      <c r="H78">
+        <v>0.04789002597794228</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1456343600723413</v>
+        <v>0.1512153389723051</v>
       </c>
       <c r="C79">
-        <v>0.07553253559021411</v>
+        <v>-0.04445981892899978</v>
       </c>
       <c r="D79">
-        <v>-0.03169648420597456</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02761307334420638</v>
+      </c>
+      <c r="E79">
+        <v>-0.01626668776371977</v>
+      </c>
+      <c r="F79">
+        <v>-0.02213507691241355</v>
+      </c>
+      <c r="G79">
+        <v>0.0426244804087056</v>
+      </c>
+      <c r="H79">
+        <v>-0.1767589769143442</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.0438906960235902</v>
+        <v>0.04304349727718526</v>
       </c>
       <c r="C80">
-        <v>0.01632005017356263</v>
+        <v>-0.008322719448311814</v>
       </c>
       <c r="D80">
-        <v>-0.02839005706462735</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01669006668554653</v>
+      </c>
+      <c r="E80">
+        <v>-0.003019482828249491</v>
+      </c>
+      <c r="F80">
+        <v>-0.002150308334602277</v>
+      </c>
+      <c r="G80">
+        <v>0.03108762274863516</v>
+      </c>
+      <c r="H80">
+        <v>-0.02616194617981958</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1168916869189291</v>
+        <v>0.1205961236697066</v>
       </c>
       <c r="C81">
-        <v>0.06438428383022679</v>
+        <v>-0.03887061311025299</v>
       </c>
       <c r="D81">
-        <v>-0.0339958425453709</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02253836710459987</v>
+      </c>
+      <c r="E81">
+        <v>0.02069101414250564</v>
+      </c>
+      <c r="F81">
+        <v>-0.01518156054531188</v>
+      </c>
+      <c r="G81">
+        <v>0.06401245207941172</v>
+      </c>
+      <c r="H81">
+        <v>-0.1476883818540486</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1292910675935066</v>
+        <v>0.1315484240947115</v>
       </c>
       <c r="C82">
-        <v>0.07790753949766302</v>
+        <v>-0.05092456489069248</v>
       </c>
       <c r="D82">
-        <v>-0.01561026491384167</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.02542602684935959</v>
+      </c>
+      <c r="E82">
+        <v>-0.006473291290075996</v>
+      </c>
+      <c r="F82">
+        <v>-0.05658040842170569</v>
+      </c>
+      <c r="G82">
+        <v>0.05709459928921809</v>
+      </c>
+      <c r="H82">
+        <v>-0.219052077705668</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.07548692485639155</v>
+        <v>0.08639565662308117</v>
       </c>
       <c r="C83">
-        <v>-0.01250821810121784</v>
+        <v>0.02570624782873629</v>
       </c>
       <c r="D83">
-        <v>-0.02226762184446759</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03241711919407475</v>
+      </c>
+      <c r="E83">
+        <v>0.02631617381840891</v>
+      </c>
+      <c r="F83">
+        <v>-0.05375128047409048</v>
+      </c>
+      <c r="G83">
+        <v>0.08242664459358617</v>
+      </c>
+      <c r="H83">
+        <v>0.06564101162483207</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02800603721441444</v>
+        <v>0.03714970777300354</v>
       </c>
       <c r="C84">
-        <v>0.02810713987138224</v>
+        <v>-0.0231147705426384</v>
       </c>
       <c r="D84">
-        <v>-0.02915217757179899</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03135561517251072</v>
+      </c>
+      <c r="E84">
+        <v>0.03080055525293395</v>
+      </c>
+      <c r="F84">
+        <v>0.05555198213389106</v>
+      </c>
+      <c r="G84">
+        <v>0.06625153053127941</v>
+      </c>
+      <c r="H84">
+        <v>0.004089202438115806</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.119401838785163</v>
+        <v>0.1217703224884653</v>
       </c>
       <c r="C85">
-        <v>0.05530075010926297</v>
+        <v>-0.0294187899430076</v>
       </c>
       <c r="D85">
-        <v>-0.02089211200697392</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.02003623943494236</v>
+      </c>
+      <c r="E85">
+        <v>0.02041741484070318</v>
+      </c>
+      <c r="F85">
+        <v>-0.03741639326690155</v>
+      </c>
+      <c r="G85">
+        <v>0.03413913707713732</v>
+      </c>
+      <c r="H85">
+        <v>-0.1577235507997245</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.04934834857164529</v>
+        <v>0.05837937327587282</v>
       </c>
       <c r="C86">
-        <v>0.0266057463935125</v>
+        <v>-0.01838795393000502</v>
       </c>
       <c r="D86">
-        <v>-0.031389314456606</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.02789489958899027</v>
+      </c>
+      <c r="E86">
+        <v>0.07376476236700132</v>
+      </c>
+      <c r="F86">
+        <v>-0.02327429621360173</v>
+      </c>
+      <c r="G86">
+        <v>0.02426144221734971</v>
+      </c>
+      <c r="H86">
+        <v>0.01742888398904074</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1170923835022923</v>
+        <v>0.1215654967945925</v>
       </c>
       <c r="C87">
-        <v>0.07076159631935743</v>
+        <v>-0.03841405715647877</v>
       </c>
       <c r="D87">
-        <v>-0.07491114123794997</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07125170409510603</v>
+      </c>
+      <c r="E87">
+        <v>0.02369307560480813</v>
+      </c>
+      <c r="F87">
+        <v>-0.002215368613161335</v>
+      </c>
+      <c r="G87">
+        <v>-0.1302260935695926</v>
+      </c>
+      <c r="H87">
+        <v>0.03917621067966338</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05261954349230334</v>
+        <v>0.0599471468681556</v>
       </c>
       <c r="C88">
-        <v>0.02932493609610787</v>
+        <v>-0.01992669259097671</v>
       </c>
       <c r="D88">
-        <v>-0.02073526080366647</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03257792956744645</v>
+      </c>
+      <c r="E88">
+        <v>0.02258032873646425</v>
+      </c>
+      <c r="F88">
+        <v>-0.005014965975837843</v>
+      </c>
+      <c r="G88">
+        <v>-0.004636727961301983</v>
+      </c>
+      <c r="H88">
+        <v>-0.05386577603720036</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.0848504460336216</v>
+        <v>0.09410886545441691</v>
       </c>
       <c r="C89">
-        <v>0.0676975287304578</v>
+        <v>-0.07971044752464908</v>
       </c>
       <c r="D89">
-        <v>0.3212114713197519</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3477339904048661</v>
+      </c>
+      <c r="E89">
+        <v>0.07349237639920699</v>
+      </c>
+      <c r="F89">
+        <v>-0.07177238453239253</v>
+      </c>
+      <c r="G89">
+        <v>0.02871476432920195</v>
+      </c>
+      <c r="H89">
+        <v>-0.001672018327105001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07307743241084544</v>
+        <v>0.07829947439062333</v>
       </c>
       <c r="C90">
-        <v>0.05914339354001824</v>
+        <v>-0.0684808596856665</v>
       </c>
       <c r="D90">
-        <v>0.3188342022712289</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.308486707214769</v>
+      </c>
+      <c r="E90">
+        <v>0.05956483787459851</v>
+      </c>
+      <c r="F90">
+        <v>0.002361350114447068</v>
+      </c>
+      <c r="G90">
+        <v>0.003426973294892369</v>
+      </c>
+      <c r="H90">
+        <v>-0.0004882049030934244</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08704826630406959</v>
+        <v>0.09030629507027985</v>
       </c>
       <c r="C91">
-        <v>0.05697372264356826</v>
+        <v>-0.03457560303104992</v>
       </c>
       <c r="D91">
-        <v>-0.02890578416363152</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.0312080138022753</v>
+      </c>
+      <c r="E91">
+        <v>0.0130245993651976</v>
+      </c>
+      <c r="F91">
+        <v>-0.005045840467010591</v>
+      </c>
+      <c r="G91">
+        <v>0.05363717786324178</v>
+      </c>
+      <c r="H91">
+        <v>-0.08013478538840089</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.07421812113316327</v>
+        <v>0.07807487858791075</v>
       </c>
       <c r="C92">
-        <v>0.0734733846708165</v>
+        <v>-0.0835385148420674</v>
       </c>
       <c r="D92">
-        <v>0.3437287529438179</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3472785861049271</v>
+      </c>
+      <c r="E92">
+        <v>0.04003260327809496</v>
+      </c>
+      <c r="F92">
+        <v>-0.0450905617745478</v>
+      </c>
+      <c r="G92">
+        <v>-0.01630648594251189</v>
+      </c>
+      <c r="H92">
+        <v>-0.01660596838479001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06428717326460727</v>
+        <v>0.0747934555487173</v>
       </c>
       <c r="C93">
-        <v>0.06490032273364049</v>
+        <v>-0.07938137095148613</v>
       </c>
       <c r="D93">
-        <v>0.312778124836613</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.3066124177842597</v>
+      </c>
+      <c r="E93">
+        <v>0.03305885119882862</v>
+      </c>
+      <c r="F93">
+        <v>-0.03575999522792633</v>
+      </c>
+      <c r="G93">
+        <v>-0.0137031861723108</v>
+      </c>
+      <c r="H93">
+        <v>0.01316318209842878</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1321927990063999</v>
+        <v>0.126856127437158</v>
       </c>
       <c r="C94">
-        <v>0.05463687944246538</v>
+        <v>-0.02081180793122848</v>
       </c>
       <c r="D94">
-        <v>-0.04669050136978994</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04874765542841765</v>
+      </c>
+      <c r="E94">
+        <v>-0.007428177681041683</v>
+      </c>
+      <c r="F94">
+        <v>-0.0205766073581772</v>
+      </c>
+      <c r="G94">
+        <v>0.06147885185997119</v>
+      </c>
+      <c r="H94">
+        <v>-0.09950218432184679</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1197048705299423</v>
+        <v>0.1265936942310836</v>
       </c>
       <c r="C95">
-        <v>0.03150772628549927</v>
+        <v>-0.00385183347179161</v>
       </c>
       <c r="D95">
-        <v>-0.06663141615336338</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.07176859695800135</v>
+      </c>
+      <c r="E95">
+        <v>0.01508402704261918</v>
+      </c>
+      <c r="F95">
+        <v>-0.03097364891187699</v>
+      </c>
+      <c r="G95">
+        <v>-0.007103602439462507</v>
+      </c>
+      <c r="H95">
+        <v>0.05175236914066828</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.220840499952551</v>
+        <v>0.2088003168889278</v>
       </c>
       <c r="C97">
-        <v>0.04976237723827859</v>
+        <v>0.001479939227614049</v>
       </c>
       <c r="D97">
-        <v>0.1121889814469709</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.08748244396266583</v>
+      </c>
+      <c r="E97">
+        <v>-0.3232528612521411</v>
+      </c>
+      <c r="F97">
+        <v>0.8668319595938512</v>
+      </c>
+      <c r="G97">
+        <v>-0.07434645772118631</v>
+      </c>
+      <c r="H97">
+        <v>-0.01007358095887918</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2479602967686091</v>
+        <v>0.2760934942046578</v>
       </c>
       <c r="C98">
-        <v>0.07623860597232561</v>
+        <v>-0.03340508709077177</v>
       </c>
       <c r="D98">
-        <v>-0.0325470384955248</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05848418333344724</v>
+      </c>
+      <c r="E98">
+        <v>-0.1811975941880046</v>
+      </c>
+      <c r="F98">
+        <v>-0.09928805244112696</v>
+      </c>
+      <c r="G98">
+        <v>0.2227943711665807</v>
+      </c>
+      <c r="H98">
+        <v>0.2336997314479372</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4464438817415047</v>
+        <v>0.2871407284589083</v>
       </c>
       <c r="C99">
-        <v>-0.8787110725859135</v>
+        <v>0.933301239504306</v>
       </c>
       <c r="D99">
-        <v>0.05047585514408379</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.1311191672238672</v>
+      </c>
+      <c r="E99">
+        <v>0.0722978022116757</v>
+      </c>
+      <c r="F99">
+        <v>-0.04904352986357075</v>
+      </c>
+      <c r="G99">
+        <v>0.02209787261546913</v>
+      </c>
+      <c r="H99">
+        <v>-0.06546032339831304</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04125519613179204</v>
+        <v>0.04892450645554691</v>
       </c>
       <c r="C101">
-        <v>0.0303181792093222</v>
+        <v>-0.02576969254685669</v>
       </c>
       <c r="D101">
-        <v>-0.007235038955891644</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.006227645776273696</v>
+      </c>
+      <c r="E101">
+        <v>0.06727199833004262</v>
+      </c>
+      <c r="F101">
+        <v>-0.00100388491281332</v>
+      </c>
+      <c r="G101">
+        <v>0.01159880380100931</v>
+      </c>
+      <c r="H101">
+        <v>-0.07057882812599553</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
